--- a/xls/14048-130-252517023_2.xlsx
+++ b/xls/14048-130-252517023_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,11 +469,26 @@
           <t>Balance</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Coverage (raw)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>MatchScore</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Matched</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IHA7806M</t>
+          <t>IHA7806M_13</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,22 +503,37 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>ค่าห้องผู้ป่วยปกติ ค่าอาหาร และค่าบริการในโรงพยาบาล - ห้องเดี่ยวมาตรฐาน</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>150,000.00 Per Disability / 365 Day Per Disability</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>104,750.00 Per Year</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>ค่าห้องผู้ป่วยปกติ ค่าอาหาร และค่าบริการในโรง พยาบาล - ห้องเดี่ยวมาตรฐาน</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>150,000.00 Per Disability / 365 Day Per Disability</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>104,750.00 Per Year</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -517,22 +547,37 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>ค่าห้องผู้ป่วย ICU ค่าอาหาร และค่าบริการในโรงพยาบาล</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>150,000.00 Per Disability / 365 Day Per Disability</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>ค่าห้องผู้ป่วย ICU ค่าอาหาร และค่าบริการในโรง พยาบาล</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>150,000.00 Per Disability / 365 Day Per Disability</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -564,6 +609,21 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ค่าบริการทางการแพทย์เพื่อการตรวจวินิจฉัย</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -575,22 +635,37 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>ค่าบริการทางการแพทย์เพื่อการบำบัดรักษา ค่าบริการโลหิตและส่วนประกอบของโลหิต และค่าบริการทางการพยาบาล</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>150,000.00 Per Disability</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>ค่าบริการทางการแพทย์เพื่อการบำบัดรักษา คำบริการ โลหิตและส่วนประกอบของโลหิต และค่าบริการทางการ พยาบาล</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>150,000.00 Per Disability</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -622,6 +697,21 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด และค่าเวชภัณฑ์</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -633,22 +723,37 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>ค่ายาและค่าเวชภัณฑ์สิ้นเปลือง (เวชภัณฑ์ 1) สำหรับกลับบ้าน</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>150,000.00 Per Disability</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>ค่ายา ค่าวัคซีนที่สิ้นเปลือง (เวชภัณฑ์ 1) สำหรับกลับ บ้าน</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>150,000.00 Per Disability</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -680,6 +785,21 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>ค่าแพทย์ตรวจรักษา</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -709,6 +829,21 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ค่าห้องผ่าตัด และค่าห้องทำหัตถการ</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -720,7 +855,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่า อุปกรณ์การฆ่าติดและหัตถการ</t>
+          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่าอุปกรณ์การผ่าตัดและหัตถการ</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -736,6 +871,21 @@
       <c r="G10" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่า อุปกรณ์การฆ่าติดและฆ่าตัดการ</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -767,6 +917,21 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ค่าแพทย์ผ่าตัดและหัตถการ</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -796,6 +961,21 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>ค่าวิสัญญีแพทย์</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -825,6 +1005,21 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ค่าห้องผ่าตัด และค่าห้องทำหัตถการ (เปลี่ยนอวัยวะ)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -836,22 +1031,37 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่าอุปกรณ์การผ่าาตัดและหัตถการ (เปลี่ยนอวัยวะ)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>150,000.00 Per Disability</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่า อุปกรณ์การฆ่าติดและหัตถการ (เปลี่ยนอวัยวะ)</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>150,000.00 Per Disability</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -865,22 +1075,37 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>ค่าแพทย์ผ่าตัดและหัตถการ (เปลี่ยนอวัยวะ)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>150,000.00 Per Disability</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>ค่ายาแพทย์ผ่าตัดและหัตถการ (เปลี่ยนอวัยวะ)</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>150,000.00 Per Disability</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -912,6 +1137,21 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>ค่าวิสัญญีแพทย์ (เปลี่ยนอวัยวะ)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -941,6 +1181,21 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>ค่าผ่าตัดใหญ่ (Day Surgery)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -952,22 +1207,37 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>ค่าบริการทางการแพทย์เพื่อการตรวจวินิฉัยก่อนและหลังจากการรักษาเป็นผู้ป่วยใน</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>150,000.00 Per Disability</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>ค่าบริการทางการแพทย์เพื่อการตรวจวินิจฉัยก่อนและ หลังจากการรักษาเป็นผู้ป่วยใน</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>150,000.00 Per Disability</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -981,22 +1251,37 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>ค่ารักษาพยาบาลผู้ป่วยนอกหลังจากการรักษาเป็นผู้ป่วยใน (ไม่รวมค่าบริการทางการแพทย์เพื่อการตรวจวินิจฉัย)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>150,000.00 Per Disability</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>ค่ารักษาพยาบาลผู้ป่วยนอกหลังจากการรักษาเป็นผู้ป่วย ใน (ไม่รวมค่าบริการทางการแพทย์เพื่อการตรวจวินิจฉัย)</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>150,000.00 Per Disability</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -1010,22 +1295,37 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>อุบัติเหตุฉุกเฉิน (ER Accident)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>150,000.00 Per Disability</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>อุบัติเผตุฉุกเฉิน (ER Accident)</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>150,000.00 Per Disability</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -1057,6 +1357,21 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>ค่าเวชศาสตร์ฟื้นฟู หลังการเข้าพักรักษาตัวเป็นผู้ป่วยใน</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
@@ -1068,22 +1383,37 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>ค่าบริการทางการแพทย์เพื่อล้างไตผ่านทางเส้นเลือด</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>150,000.00 Per Disability</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>ค่าบริการทางการแพทย์เพื่อสังคมโดยผ่านทางเส้นเลือด</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>150,000.00 Per Disability</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -1097,22 +1427,37 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>ค่าบริการทางการแพทย์ โดยรังสีรักษา เวชศาสตร์นิวเคลียร์</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>150,000.00 Per Disability</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>ค่าบริการทางการแพทย์ โดยรังสิรักษา เวชศาสตร์ นิวคลียร์</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>150,000.00 Per Disability</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -1126,22 +1471,37 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>ค่าบริการทางการแพทย์โดยเคมีบำบัด</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>150,000.00 Per Disability</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
           <t>ค่าบริการทางการแพทย์ โดยเคมีบำบัด</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>150,000.00 Per Disability</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -1173,6 +1533,21 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>ค่าบริการรถพยาบาล</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -1202,6 +1577,21 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>ค่ารักษาพยาบาล โดยการผ่าตัดเล็ก (Minor Surgery)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xls/14048-130-252517023_2.xlsx
+++ b/xls/14048-130-252517023_2.xlsx
@@ -792,12 +792,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -875,12 +875,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่า อุปกรณ์การฆ่าติดและฆ่าตัดการ</t>
+          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่า อุปกรณ์การฆ่าเชื้อและฆ่าสถาร</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>79</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่า อุปกรณ์การฆ่าติดและหัตถการ (เปลี่ยนอวัยวะ)</t>
+          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่า อุปกรณ์การฆ่าเชื้อและหัตถการ (เปลี่ยนอวัยวะ)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>87</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">

--- a/xls/14048-130-252517023_2.xlsx
+++ b/xls/14048-130-252517023_2.xlsx
@@ -699,12 +699,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด และค่าเวชภัณฑ์</t>
+          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด และค่าวัคซีนท์</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>89</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -743,12 +743,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ค่ายา ค่าวัคซีนที่สิ้นเปลือง (เวชภัณฑ์ 1) สำหรับกลับ บ้าน</t>
+          <t>ค่ายา ค่าเวชภัณฑ์สิ้นเปลือง (เวชภัณฑ์ 1) สำหรับกลับ บ้าน</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>88</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -875,12 +875,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่า อุปกรณ์การฆ่าเชื้อและฆ่าสถาร</t>
+          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่า อุปกรณ์การฆ่าติดและหัตถการ</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>89</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่า อุปกรณ์การฆ่าเชื้อและหัตถการ (เปลี่ยนอวัยวะ)</t>
+          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่า อุปกรณ์การฆ่าติดและหัตถการ (เปลี่ยนอวัยวะ)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>90</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">

--- a/xls/14048-130-252517023_2.xlsx
+++ b/xls/14048-130-252517023_2.xlsx
@@ -699,12 +699,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด และค่าวัคซีนท์</t>
+          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด และค่าเวชภัณฑ์</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -743,12 +743,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ค่ายา ค่าเวชภัณฑ์สิ้นเปลือง (เวชภัณฑ์ 1) สำหรับกลับ บ้าน</t>
+          <t>ค่ายา ค่าวัคซีนที่สิ้นเปลือง (เวชภัณฑ์ 1) สำหรับกลับ บ้าน</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>77</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -875,12 +875,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่า อุปกรณ์การฆ่าติดและหัตถการ</t>
+          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่า อุปกรณ์การฆ่าติดและฆ่าตัดการ</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>83</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ค่าบริการทางการแพทย์โดยเคมีบำบัด</t>
+          <t>ค่าบริการทางการแพทย์ โดยเคมีบำบัด</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">

--- a/xls/14048-130-252517023_2.xlsx
+++ b/xls/14048-130-252517023_2.xlsx
@@ -699,12 +699,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด และค่าเวชภัณฑ์</t>
+          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด และค่าวัคซีนท์</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>89</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ค่ายาและค่าเวชภัณฑ์สิ้นเปลือง (เวชภัณฑ์ 1) สำหรับกลับบ้าน</t>
+          <t>ค่ายา ค่าเวชภัณฑ์สิ้นเปลือง (เวชภัณฑ์ 1) สำหรับกลับบ้าน</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -743,12 +743,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ค่ายา ค่าวัคซีนที่สิ้นเปลือง (เวชภัณฑ์ 1) สำหรับกลับ บ้าน</t>
+          <t>ค่ายา ค่าเวชภัณฑ์สิ้นเปลือง (เวชภัณฑ์ 1) สำหรับกลับ บ้าน</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>92</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -875,12 +875,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่า อุปกรณ์การฆ่าติดและฆ่าตัดการ</t>
+          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่า อุปกรณ์การฆ่าติดและหัตถการ</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>89</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่าอุปกรณ์การผ่าาตัดและหัตถการ (เปลี่ยนอวัยวะ)</t>
+          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่าอุปกรณ์การผ่าตัดและหัตถการ (เปลี่ยนอวัยวะ)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
